--- a/PILOT/DATA/Corrected/GroupA/transcriptions_corrected/5f5aa60bef062519ff711fe6_semantic_fluency_fullA_2024-03-15_04h46.43.854_recording_Mic_cattestresgis_trials_3_2024-03-15_05h01.16.694.xlsx
+++ b/PILOT/DATA/Corrected/GroupA/transcriptions_corrected/5f5aa60bef062519ff711fe6_semantic_fluency_fullA_2024-03-15_04h46.43.854_recording_Mic_cattestresgis_trials_3_2024-03-15_05h01.16.694.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shruthi/Documents/Postdoc/Semantic_Fluency/Semantic_Data_Analysis/PILOT/DATA/GroupA/transcriptions_collocations_gen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shruthi/Documents/Postdoc/Semantic_Fluency/Semantic_Data_Analysis/PILOT/DATA/Corrected/GroupA/transcriptions_corrected/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D181537-614B-BF47-B211-7B4C32351BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483DC54A-6BB6-AE4B-8C8C-BF60407A5209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="10000" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30240" yWindow="-1460" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Word</t>
   </si>
@@ -55,9 +55,6 @@
     <t>attorney</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
     <t>judge</t>
   </si>
   <si>
@@ -88,12 +85,6 @@
     <t>receptionist</t>
   </si>
   <si>
-    <t>general</t>
-  </si>
-  <si>
-    <t>manager</t>
-  </si>
-  <si>
     <t>analyst</t>
   </si>
   <si>
@@ -131,6 +122,9 @@
   </si>
   <si>
     <t>content creator</t>
+  </si>
+  <si>
+    <t>general manager</t>
   </si>
 </sst>
 </file>
@@ -494,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -602,7 +596,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>18</v>
@@ -616,7 +610,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B9">
         <v>19.5</v>
@@ -630,7 +624,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B10">
         <v>21.2</v>
@@ -658,13 +652,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B12">
-        <v>28.2</v>
+        <v>28.8</v>
       </c>
       <c r="C12">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="D12">
         <v>0.93398380279541016</v>
@@ -672,27 +666,27 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B13">
-        <v>28.8</v>
+        <v>30.6</v>
       </c>
       <c r="C13">
-        <v>29.1</v>
+        <v>31.7</v>
       </c>
       <c r="D13">
-        <v>0.93398380279541016</v>
+        <v>0.98544532060623169</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>30.6</v>
+        <v>31.7</v>
       </c>
       <c r="C14">
-        <v>31.7</v>
+        <v>33.1</v>
       </c>
       <c r="D14">
         <v>0.98544532060623169</v>
@@ -703,13 +697,13 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>31.7</v>
+        <v>35</v>
       </c>
       <c r="C15">
-        <v>33.1</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="D15">
-        <v>0.98544532060623169</v>
+        <v>0.95962238311767578</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -717,10 +711,10 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>35</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="C16">
-        <v>36.299999999999997</v>
+        <v>38</v>
       </c>
       <c r="D16">
         <v>0.95962238311767578</v>
@@ -728,30 +722,30 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B17">
-        <v>36.299999999999997</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="C17">
-        <v>38</v>
+        <v>41.6</v>
       </c>
       <c r="D17">
-        <v>0.95962238311767578</v>
+        <v>0.89179688692092896</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B18">
-        <v>40.700000000000003</v>
+        <v>47.6</v>
       </c>
       <c r="C18">
-        <v>41.6</v>
+        <v>48.5</v>
       </c>
       <c r="D18">
-        <v>0.89179688692092896</v>
+        <v>0.9603874683380127</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -759,13 +753,13 @@
         <v>15</v>
       </c>
       <c r="B19">
-        <v>47.6</v>
+        <v>49.8</v>
       </c>
       <c r="C19">
-        <v>48.5</v>
+        <v>50.4</v>
       </c>
       <c r="D19">
-        <v>0.9603874683380127</v>
+        <v>0.94991600513458252</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -773,55 +767,55 @@
         <v>16</v>
       </c>
       <c r="B20">
-        <v>49.8</v>
+        <v>58.2</v>
       </c>
       <c r="C20">
-        <v>50.4</v>
+        <v>59.1</v>
       </c>
       <c r="D20">
-        <v>0.94991600513458252</v>
+        <v>0.92894381284713745</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>58.2</v>
+        <v>71.8</v>
       </c>
       <c r="C21">
-        <v>59.1</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="D21">
-        <v>0.92894381284713745</v>
+        <v>0.88837778568267822</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>71.8</v>
+        <v>76.5</v>
       </c>
       <c r="C22">
-        <v>73.599999999999994</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="D22">
-        <v>0.88837778568267822</v>
+        <v>0.98762905597686768</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B23">
-        <v>76.5</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="C23">
-        <v>78.099999999999994</v>
+        <v>82.2</v>
       </c>
       <c r="D23">
-        <v>0.98762905597686768</v>
+        <v>0.92879009246826172</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -829,10 +823,10 @@
         <v>18</v>
       </c>
       <c r="B24">
-        <v>81.400000000000006</v>
+        <v>82.2</v>
       </c>
       <c r="C24">
-        <v>82.2</v>
+        <v>83.8</v>
       </c>
       <c r="D24">
         <v>0.92879009246826172</v>
@@ -843,10 +837,10 @@
         <v>19</v>
       </c>
       <c r="B25">
-        <v>82.2</v>
+        <v>83.8</v>
       </c>
       <c r="C25">
-        <v>83.8</v>
+        <v>85.7</v>
       </c>
       <c r="D25">
         <v>0.92879009246826172</v>
@@ -854,55 +848,55 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>83.8</v>
+        <v>88.4</v>
       </c>
       <c r="C26">
-        <v>85.7</v>
+        <v>89.5</v>
       </c>
       <c r="D26">
-        <v>0.92879009246826172</v>
+        <v>0.53760600090026855</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B27">
-        <v>88.4</v>
+        <v>92</v>
       </c>
       <c r="C27">
-        <v>89.5</v>
+        <v>93</v>
       </c>
       <c r="D27">
-        <v>0.53760600090026855</v>
+        <v>0.96128928661346436</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>92</v>
+        <v>96.4</v>
       </c>
       <c r="C28">
-        <v>93</v>
+        <v>97.7</v>
       </c>
       <c r="D28">
-        <v>0.96128928661346436</v>
+        <v>0.92939966917037964</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>96.4</v>
+        <v>97.7</v>
       </c>
       <c r="C29">
-        <v>97.1</v>
+        <v>98.8</v>
       </c>
       <c r="D29">
         <v>0.92939966917037964</v>
@@ -910,85 +904,57 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>97.1</v>
+        <v>100.2</v>
       </c>
       <c r="C30">
-        <v>97.7</v>
+        <v>101.1</v>
       </c>
       <c r="D30">
-        <v>0.92939966917037964</v>
+        <v>0.91417235136032104</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>97.7</v>
+        <v>101.1</v>
       </c>
       <c r="C31">
-        <v>98.8</v>
+        <v>102.5</v>
       </c>
       <c r="D31">
-        <v>0.92939966917037964</v>
+        <v>0.91417235136032104</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B32">
-        <v>100.2</v>
+        <v>112</v>
       </c>
       <c r="C32">
-        <v>101.1</v>
+        <v>113</v>
       </c>
       <c r="D32">
-        <v>0.91417235136032104</v>
+        <v>0.85397720336914062</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B33">
-        <v>101.1</v>
+        <v>114</v>
       </c>
       <c r="C33">
-        <v>102.5</v>
+        <v>115.3</v>
       </c>
       <c r="D33">
-        <v>0.91417235136032104</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34">
-        <v>112</v>
-      </c>
-      <c r="C34">
-        <v>113</v>
-      </c>
-      <c r="D34">
-        <v>0.85397720336914062</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35">
-        <v>114</v>
-      </c>
-      <c r="C35">
-        <v>115.3</v>
-      </c>
-      <c r="D35">
         <v>0.98762905597686768</v>
       </c>
     </row>
